--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1476700.915765482</v>
+        <v>-1479570.343608802</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.058423000547998</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.052462558203959</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.7766318184177</v>
+        <v>126.3298627762798</v>
       </c>
       <c r="X4" t="n">
-        <v>179.0828571916968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>77.88538464258939</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>64.76935934992291</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>123.6064608052457</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>13.9802399895738</v>
       </c>
       <c r="E8" t="n">
-        <v>144.5086084817269</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>7.242727921694293</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>271.0092135898864</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>73.22341869628478</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>177.1555223271058</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>83.53432244437134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.239490800229</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808293</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>413.2717739202503</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C2" t="n">
-        <v>413.2717739202503</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D2" t="n">
-        <v>55.00607531349976</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E2" t="n">
-        <v>55.00607531349976</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>55.00607531349976</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>799.8716139843721</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W4" t="n">
-        <v>455.6273359050024</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>511.7496909373128</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>153.4839923305623</v>
       </c>
       <c r="E5" t="n">
         <v>74.81188663097703</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2631.72549571527</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2631.72549571527</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2300.662608371699</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1947.893953101585</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1574.428194840505</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>603.2739732920446</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>603.2739732920446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>603.2739732920446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>603.2739732920446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.4813941485145</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1346.208074996719</v>
+        <v>492.0977188680635</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.208074996719</v>
+        <v>492.0977188680635</v>
       </c>
       <c r="D8" t="n">
-        <v>1346.208074996719</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2062.680899340373</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2072.442488527913</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="W8" t="n">
-        <v>1719.673833257799</v>
+        <v>1642.302649169077</v>
       </c>
       <c r="X8" t="n">
-        <v>1346.208074996719</v>
+        <v>1268.836890907997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1346.208074996719</v>
+        <v>878.6975589321853</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>592.9687148475971</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>924.0689295613406</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347.0615014506548</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>347.0615014506548</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>347.0615014506548</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>347.0615014506548</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>347.0615014506548</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1046.561776490119</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1046.561776490119</v>
       </c>
       <c r="T10" t="n">
-        <v>620.8081818444795</v>
+        <v>1046.561776490119</v>
       </c>
       <c r="U10" t="n">
-        <v>347.0615014506548</v>
+        <v>757.4096000677988</v>
       </c>
       <c r="V10" t="n">
-        <v>347.0615014506548</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W10" t="n">
-        <v>347.0615014506548</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>347.0615014506548</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>347.0615014506548</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,34 +5033,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1903.498031322342</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1981.370942808024</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>718.550723916711</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>900.1991887469508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5981,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,25 +6643,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979288</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7491,25 +7491,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>38.14709430781187</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>73.09871788457451</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>312.5708431852133</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-8.013003602730812e-14</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-2.300097184559153e-14</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>374.8719470717138</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>324.8795297923033</v>
       </c>
       <c r="G2" t="n">
-        <v>412.731707462591</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>160.1931355603112</v>
       </c>
       <c r="X4" t="n">
-        <v>46.62679819734035</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>212.9610556929593</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>109.0289520621384</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>202.6501519448728</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>141250.654945751</v>
@@ -26326,10 +26326,10 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
         <v>141250.6549457511</v>
@@ -26341,7 +26341,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262497</v>
@@ -26350,7 +26350,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262496</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119782.0978810012</v>
+        <v>119782.0978810013</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26427,31 +26427,31 @@
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682777</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682718</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682718</v>
-      </c>
       <c r="I4" t="n">
-        <v>5677.536566682726</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.39582977624</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="M4" t="n">
         <v>13668.39582977622</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
         <v>13668.3958297762</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-676564.2113134285</v>
+        <v>-676959.0322545817</v>
       </c>
       <c r="C6" t="n">
         <v>-149099.1838001931</v>
@@ -26528,40 +26528,40 @@
         <v>-304902.9898939881</v>
       </c>
       <c r="E6" t="n">
-        <v>-736602.1028256451</v>
+        <v>-736636.8407510809</v>
       </c>
       <c r="F6" t="n">
-        <v>34450.58855516127</v>
+        <v>34415.85062972555</v>
       </c>
       <c r="G6" t="n">
-        <v>34450.58855516133</v>
+        <v>34415.85062972555</v>
       </c>
       <c r="H6" t="n">
-        <v>34450.58855516133</v>
+        <v>34415.85062972558</v>
       </c>
       <c r="I6" t="n">
-        <v>34450.5885551613</v>
+        <v>34415.85062972558</v>
       </c>
       <c r="J6" t="n">
-        <v>-141972.6306374318</v>
+        <v>-142007.3685628674</v>
       </c>
       <c r="K6" t="n">
-        <v>7422.080048926291</v>
+        <v>7422.08004892632</v>
       </c>
       <c r="L6" t="n">
-        <v>26849.79804255802</v>
+        <v>26849.79804255806</v>
       </c>
       <c r="M6" t="n">
-        <v>-97358.71266550047</v>
+        <v>-97358.7126655005</v>
       </c>
       <c r="N6" t="n">
-        <v>26849.79804255809</v>
+        <v>26849.79804255799</v>
       </c>
       <c r="O6" t="n">
-        <v>26849.79804255803</v>
+        <v>26849.79804255806</v>
       </c>
       <c r="P6" t="n">
-        <v>7422.080048926204</v>
+        <v>7422.080048926247</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203969</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81.99651594940809</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>16.74636651817332</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>304.0449854296724</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>151.6789610077349</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27822,16 +27822,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>162.675413436732</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>340.7028016311091</v>
       </c>
       <c r="E8" t="n">
-        <v>237.4217615905349</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>121.930453746097</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>15.25144106821057</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359106</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709962</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,10 +33974,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>234.444279047188</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>211.7144734559826</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>513.2342185919454</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525773</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060466</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37005,10 +37005,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,10 +37622,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111711</v>
